--- a/ScrapeJobPostData/ZipRecruiterWorkflow/excelsheet/ZipRepcruiter.xlsx
+++ b/ScrapeJobPostData/ZipRecruiterWorkflow/excelsheet/ZipRepcruiter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Projects\P3SalesAutomationSuite\ScrapeJobPostData\ZipRecruiterWorkflow\excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2164C280-5CCD-4B60-9184-0CB0EE10158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9282FB-E603-4D8F-A765-686D0DA0B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1335" windowWidth="24195" windowHeight="11835" activeTab="1" xr2:uid="{B8E5FA24-BE89-421C-A9E6-4FB49388D64D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B8E5FA24-BE89-421C-A9E6-4FB49388D64D}"/>
   </bookViews>
   <sheets>
     <sheet name="CleanSheet" sheetId="15" r:id="rId1"/>
@@ -35,183 +35,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Jobtitle</t>
+  </si>
   <si>
     <t>CompanyName</t>
   </si>
   <si>
-    <t>JobTitle</t>
-  </si>
-  <si>
-    <t>JobLocation</t>
+    <t>Joblocation</t>
+  </si>
+  <si>
+    <t>JobType</t>
   </si>
   <si>
     <t>UniqueJobs</t>
   </si>
   <si>
-    <t>DatePosted</t>
-  </si>
-  <si>
-    <t>WebsiteName</t>
-  </si>
-  <si>
-    <t>DateRetrieved</t>
-  </si>
-  <si>
-    <t>KeyWord</t>
+    <t>PostedDate</t>
+  </si>
+  <si>
+    <t>SearchedDate</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
   <si>
     <t>Developer</t>
   </si>
   <si>
-    <t>REMOTE Junior Developer</t>
-  </si>
-  <si>
-    <t>Solutions360 Inc.</t>
-  </si>
-  <si>
-    <t>Phoenix, AZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-            5 hours ago
-          </t>
-  </si>
-  <si>
-    <t>11/23/2021</t>
+    <t>Junior Developer</t>
+  </si>
+  <si>
+    <t>Hays</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Full-Time</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Zip Recruiter</t>
   </si>
   <si>
-    <t>https://www.ziprecruiter.com/k/l/AAJUZbktdlhsLMus9M70Fiza8H9q03OcnR2V8yD1KZrhRTmTesUnoZ0UNajicxyqkdU0T3M46eKVdW_cIVubaKTdVLQWqf_3Y_nFmgmmFbo1cib8xTwE_8GHyoI9QMR4BBqcRGLp5aQtyofRpT3aNQFZKjhHU_jsIXjktoXvnpXhWbohHe5j8EW-buw9Euw</t>
-  </si>
-  <si>
-    <t>Graduate Engineer</t>
-  </si>
-  <si>
-    <t>Aran &amp; Franklin Engineering</t>
-  </si>
-  <si>
-    <t>Texas City, TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-            2 hours ago
-          </t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/k/l/AALk7RLr_eJA5sYwnusNsFU4Svov6kBBmIXczVQm7_1YLqHKLg5qytUb34hG2dL-aY7x7hHkbbtT_rAt5joS51NEQTW78pPDc2_dY0sfLjB8FATUbDWAEySxFaBfK4n1GbnCpsXBwK5I1fKOY5OpQhZS5TyTPGDfPBOYjM6_xJIAnRGsr7G7eQ3bswR5os8</t>
-  </si>
-  <si>
-    <t>Junior ReactJS Engineer</t>
-  </si>
-  <si>
-    <t>Jobot</t>
-  </si>
-  <si>
-    <t>Nashville, TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-            yesterday
-          </t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/k/l/AAKs8jTiCat2iWtVlLX4l5PFA8O58x71uN8WYsE8B_UczbGTOsFKMmHzoqnNHVjuyOkYdaZNCaD6YuIxvtsGT7SmbjgVgaPsUmJn9UsrFLbl4FlNO_P41m3QimMVLNExPQYuMn62wRZaQFGxz7eCz5px_RprH37NYcRYeCeXYeGuoYG34coPLmJTEj92j3o</t>
-  </si>
-  <si>
-    <t>BCA P8 Entry Level Process Engineer</t>
+    <t>Entry Level Software Engineers - F-15 International Programs</t>
   </si>
   <si>
     <t>BOEING</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/ek/l/AAJS2H4LbN8iBMXccwp9rWUu3vy1sigqk5SOeYuWoXEermYt9SYwwhk_San2LH3puBSR2lVtlt-ZYtauFctxsx1arPASXA-AoHTeqN11n70s-a_CfZscRrnmaHftAsRBIUNGuWzSZoG_BAbnjVCWYiVWL8_Z0dhirBV3m9Ltadl3UswoaPKmnOh8nebdTJ0</t>
-  </si>
-  <si>
-    <t>Entry Level System Engineer ( Linux / Windows ) #13139041</t>
-  </si>
-  <si>
-    <t>TripleNet Technologies, Inc.</t>
-  </si>
-  <si>
-    <t>Bellevue, WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-            20 hours ago
-          </t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/k/l/AAK454lIfGUHpgp7nTrwJt_d6Zqe_u08xy5HVJt2djGe43ex-9fABvMEfzNC7P4Aj-xePimBNpIMkln9NuWCS2-BjPX2QuOOkJDGPgh1UkAAQYPXgRTopZAWre6ktwWtozO2OkiwErbz5eQ57CHCgTMY4ddIgL9xQy16QSNuwnH--LyIFt22MGDkzcNGFls</t>
-  </si>
-  <si>
-    <t>Entry Level Software Developer</t>
-  </si>
-  <si>
-    <t>Revature</t>
-  </si>
-  <si>
-    <t>Everett, WA</t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/ek/l/AAIrCzvcAhtUV0aYG2fsCxrEWx7tBGDi1WXmXGP6F0GJS-rgHL-cDwP6NDRkRXv62JCOdk2fubcyc0u4X4fQiUQr5hTwl7BhDaJciBCjT-BbGkjKRlcQ0SQ5YzDZkoP5toy-hn5X3GFvhQrKYZrmIKv-9sMOc_V17gTzjmoppyEhrbkYpZ86YDzLPL9T5rE</t>
-  </si>
-  <si>
-    <t>Jr. Robot Programmer</t>
-  </si>
-  <si>
-    <t>Calance US</t>
-  </si>
-  <si>
-    <t>Georgetown, KY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-            27 days ago
-          </t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/k/l/AAJj1gEd8UkoNl3R0UVPgHUKrvsg1bYpihA5xcteEUmngQs9oqOIGdmnlG-B4mIiKtRCIotWdowth_JwYGeY1lRkfWSY5db52hT6miAwXoLgEFnxvljyu1zzF6HpFzmh7LdeERHAhAfWjeh5nI60DRLAMYsvXcxYizlJWkEIvkF8F427pd_aLcY2n10pDlw</t>
-  </si>
-  <si>
-    <t>Machine Operators ($16.50)(1st&amp;2nd Shift)(Entry Level)</t>
-  </si>
-  <si>
-    <t>Pathway Group</t>
-  </si>
-  <si>
-    <t>Corona, CA</t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/k/l/AAI0Pmet7AZ2yW5jdcRbaRI_KEFaezMeOB4P1vH17Tfb2eVqstv6Lk1MXw6Jm5c94zxnJx-SrR4YKruPWdYy9QQ3YLpvBFYkxmLbZGvo4pNEUFS8MRd-StQJ-5R5urEdkGtfZGxHAUtN3Z95hYk7UHqIMhUpRtOtMiakkoVfb0Wnf8DL31AttA-8EAhUanY</t>
-  </si>
-  <si>
-    <t>Machine Operator ($16.50/hr) Entry Level</t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/k/l/AAKMr4S5nwh0aNSm2OSceyRTPs4dW-6haAc1sKr8u3eF6Fk19FCGF0GOwbkDsbt0qlKqz_BsbrUfGp9UOcfpS27t4bSvnZEk7InxpF2hQBjrerwyhEw4uHn0d-nPkL5rzyiniw1BksqwYWVjWHJM6IoGfGaWxTd89Ia4mCzpY6cteXB4v8dYTluBFCGVnjE</t>
-  </si>
-  <si>
-    <t>Entry Level Project Accountant</t>
-  </si>
-  <si>
-    <t>Hardesty &amp; Hanover</t>
-  </si>
-  <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-            1 hour ago
-          </t>
-  </si>
-  <si>
-    <t>https://www.ziprecruiter.com/k/l/AAJjRbixpIVYXmkHOFu_YFi5M2wxVtrCgEBdNPfkTgZBIINcie0dlH-n_F2-pJTG6_ESgydKkBHyiAq6EzRELOYYpfcr5_r3kyYe5a3qwz04ejaBF_8AtPa8dkwzNnxz8OrL61h484M6eYmbuDQV3ssImoFfSMMP9FDaO_TWDhljfAQWHGl-0a5QcAQ03GM_</t>
+    <t>Bridgeton, MO</t>
+  </si>
+  <si>
+    <t>Jr. Java Developer</t>
+  </si>
+  <si>
+    <t>The Judge Group</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Entry Level Real-time Software Engineer</t>
+  </si>
+  <si>
+    <t>Berkeley, MO</t>
+  </si>
+  <si>
+    <t>Entry Level Software Engineer - C/C++</t>
+  </si>
+  <si>
+    <t>Volt</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>Junior Software Developer - C/C++ (UAS Programs)</t>
+  </si>
+  <si>
+    <t>GENERAL ATOMICS</t>
+  </si>
+  <si>
+    <t>Software Developer - SkyGuardian</t>
+  </si>
+  <si>
+    <t>Junior Java developer | J2EE | IT Sector</t>
+  </si>
+  <si>
+    <t>Infosys - DDB Mudra</t>
+  </si>
+  <si>
+    <t>Tempe, Arizona</t>
+  </si>
+  <si>
+    <t>NX Design Engineer - Entry Level</t>
+  </si>
+  <si>
+    <t>QuEST Global</t>
+  </si>
+  <si>
+    <t>Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>CompanySize</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>11/29/2021</t>
+  </si>
+  <si>
+    <t>Entry Level Industrial Engineer</t>
+  </si>
+  <si>
+    <t>G-TECH Services</t>
+  </si>
+  <si>
+    <t>Toledo, OH</t>
+  </si>
+  <si>
+    <t>Contractor</t>
   </si>
 </sst>
 </file>
@@ -247,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -255,6 +210,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFB46F3-927B-4A27-9030-FE4FD31F447E}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5 G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,14 +536,17 @@
     <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,416 +563,592 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" s="3"/>
-      <c r="F2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5">
+        <v>567</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3577</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
+        <v>616</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I4" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3577</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5">
+        <v>7864</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I6" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5">
+        <v>360</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>360</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="3"/>
-      <c r="F10"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="3"/>
-      <c r="F11"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5">
+        <v>302</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>469</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I10" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
+        <v>113</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44529</v>
+      </c>
+      <c r="I11" s="2">
+        <v>44529</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" s="3"/>
       <c r="F12"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="3"/>
       <c r="F13"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" s="3"/>
       <c r="F14"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" s="3"/>
       <c r="F15"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" s="3"/>
       <c r="F16"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" s="3"/>
       <c r="F17"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="3"/>
       <c r="F19"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="3"/>
       <c r="F20"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="3"/>
       <c r="F21"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="3"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="3"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="3"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="3"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="3"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="3"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="3"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="3"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="3"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="3"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="3"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="3"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="3"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="3"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="3"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="3"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="3"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="3"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="3"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="3"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="3"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="3"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="3"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="3"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="3"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="3"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="3"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="3"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="3"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="3"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="3"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="3"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="3"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="3"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="3"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="3"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="3"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="3"/>
-      <c r="G81" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83568F06-AC0C-40CF-9CFD-9487EAA132B8}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10 H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1 F1 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,9 +1170,10 @@
     <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,686 +1190,661 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>567</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3577</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>616</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3577</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7864</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>360</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>360</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>302</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4">
-        <v>9018</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3771</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>142</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4">
-        <v>6079</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>469</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1">
-        <v>89</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="1">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="4">
+        <v>113</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
-      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="4"/>
-      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="4"/>
-      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
-      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
-      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
-      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
-      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" s="4"/>
-      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D73" s="4"/>
-      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D74" s="4"/>
-      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
-      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
-      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D81" s="4"/>
-      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
